--- a/Template26000-27999.xlsx
+++ b/Template26000-27999.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="1940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1946">
   <si>
     <t>UBND Ủy ban nhân dân xã Dế Xu Phình 
  tỉnh Yên Bái</t>
@@ -6873,6 +6873,24 @@
   <si>
     <t>Công an huyện Phù Ninh 
  tỉnh Phú Thọ</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Đơn Vị</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>DI ĐỘNG</t>
+  </si>
+  <si>
+    <t>CỐ ĐỊNH</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
   </si>
 </sst>
 </file>
@@ -7211,14 +7229,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F2001"/>
+  <dimension ref="A1:F2001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2001"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1945</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>26000</v>
